--- a/target/classes/examples/社会餐饮.xlsx
+++ b/target/classes/examples/社会餐饮.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>河东区</t>
   </si>
@@ -71,79 +71,13 @@
     <t>惠记烧鸡</t>
   </si>
   <si>
-    <t>江南大包</t>
-  </si>
-  <si>
-    <t>务华餐厅</t>
-  </si>
-  <si>
-    <t>八珍脱骨香熟食城</t>
-  </si>
-  <si>
-    <t>伊利冰淇淋海之龙冷食配送中心</t>
-  </si>
-  <si>
-    <t>长江饭店(林亭口镇糙甸中学东南)</t>
-  </si>
-  <si>
-    <t>长路饭庄</t>
-  </si>
-  <si>
-    <t>长庆斋饭庄</t>
-  </si>
-  <si>
-    <t>长生乐西饼屋</t>
-  </si>
-  <si>
-    <t>郑州羊肉烩面</t>
-  </si>
-  <si>
     <t>枫林路6号附近</t>
   </si>
   <si>
-    <t>小海地枫林路6号</t>
-  </si>
-  <si>
-    <t>津京公路6号</t>
-  </si>
-  <si>
-    <t>枫林路15号</t>
-  </si>
-  <si>
-    <t>榆林路11号</t>
-  </si>
-  <si>
-    <t>天津近郊宝坻区林黑路</t>
-  </si>
-  <si>
-    <t>天津近郊宁河县津榆公路</t>
-  </si>
-  <si>
-    <t>天津近郊静海县京福公路</t>
-  </si>
-  <si>
-    <t>程林</t>
-  </si>
-  <si>
-    <t>建设南路69号</t>
-  </si>
-  <si>
     <t>餐馆名称</t>
   </si>
   <si>
-    <t>TJ-SCC</t>
-  </si>
-  <si>
     <t>区县</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>TJ-SCC类型</t>
-  </si>
-  <si>
-    <t>经度</t>
   </si>
   <si>
     <t>纬度</t>
@@ -227,15 +161,6 @@
     </r>
   </si>
   <si>
-    <t>其他源;餐饮;所有类别;其他</t>
-  </si>
-  <si>
-    <t>其他源;餐饮;所有类别;中餐馆</t>
-  </si>
-  <si>
-    <t>其他源;餐饮;所有类别;快餐店</t>
-  </si>
-  <si>
     <t>年份</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -276,34 +201,52 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天山区</t>
-  </si>
-  <si>
-    <t>沙依巴克区</t>
-  </si>
-  <si>
-    <t>新市区</t>
-  </si>
-  <si>
-    <t>水磨沟区</t>
-  </si>
-  <si>
-    <t>头屯河区</t>
-  </si>
-  <si>
-    <t>达坂城区</t>
-  </si>
-  <si>
-    <t>米东区</t>
-  </si>
-  <si>
-    <t>乌鲁木齐县</t>
-  </si>
-  <si>
-    <t>克拉玛依市</t>
-  </si>
-  <si>
-    <t>独山子区</t>
+    <t>SCC编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐馆地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO2 排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -387,10 +330,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -424,18 +366,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,7 +398,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -499,7 +440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,7 +475,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -743,101 +684,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="19.375" customWidth="1"/>
-    <col min="17" max="17" width="19.375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="19.375" style="4" customWidth="1"/>
     <col min="18" max="19" width="19.375" customWidth="1"/>
-    <col min="20" max="20" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21.75">
+    <row r="1" spans="1:28" ht="21.75">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="V1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="U1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="1">
+        <v>2001000190</v>
+      </c>
+      <c r="B2">
         <v>2013</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
       </c>
       <c r="C2">
         <v>650102</v>
@@ -846,7 +807,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>117.262342</v>
@@ -854,472 +815,68 @@
       <c r="G2">
         <v>39.066327999999999</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
+      <c r="H2" s="2">
+        <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="2">
         <v>1500</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>1600</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="U2" s="1">
-        <v>2001000190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
-        <v>2013</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3">
-        <v>650103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>117.26234700000001</v>
-      </c>
-      <c r="G3">
-        <v>39.066206999999999</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="U3" s="1">
-        <v>2001000190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4">
-        <v>2013</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4">
-        <v>650104</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4">
-        <v>116.930385</v>
-      </c>
-      <c r="G4">
-        <v>39.671790000000001</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="3">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K4" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="U4" s="1">
-        <v>2001000106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5">
-        <v>650105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>117.26283100000001</v>
-      </c>
-      <c r="G5">
-        <v>39.066276999999999</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="U5" s="1">
-        <v>2001000190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6">
-        <v>2013</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6">
-        <v>650106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6">
-        <v>117.267808</v>
-      </c>
-      <c r="G6">
-        <v>39.061870999999996</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="U6" s="1">
-        <v>2001000108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
-        <v>2013</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7">
-        <v>650107</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>117.475303</v>
-      </c>
-      <c r="G7">
-        <v>39.619329</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="3">
-        <v>6</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="U7" s="1">
-        <v>2001000106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8">
-        <v>2013</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8">
-        <v>650109</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8">
-        <v>117.47698200000001</v>
-      </c>
-      <c r="G8">
-        <v>39.349820000000001</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="3">
-        <v>6</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="U8" s="1">
-        <v>2001000106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
-        <v>2013</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9">
-        <v>650121</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9">
-        <v>116.93616900000001</v>
-      </c>
-      <c r="G9">
-        <v>38.844245999999998</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="3">
-        <v>6</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="U9" s="1">
-        <v>2001000106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10">
-        <v>2013</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10">
-        <v>650200</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10">
-        <v>117.286826</v>
-      </c>
-      <c r="G10">
-        <v>39.129809999999999</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="U10" s="1">
-        <v>2001000108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
-        <v>2013</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11">
-        <v>650202</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11">
-        <v>117.827524</v>
-      </c>
-      <c r="G11">
-        <v>39.245176999999998</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="U11" s="1">
-        <v>2001000108</v>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1344,10 +901,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/target/classes/examples/社会餐饮.xlsx
+++ b/target/classes/examples/社会餐饮.xlsx
@@ -1,69 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_5493D713E9CB0DF7FB6955A1CE0954A9194CB923" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A19E253E-1767-4DBF-8E95-CDCACB4CC227}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="区县编码" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
-  <si>
-    <t>河东区</t>
-  </si>
-  <si>
-    <t>河西区</t>
-  </si>
-  <si>
-    <t>南开区</t>
-  </si>
-  <si>
-    <t>武清区</t>
-  </si>
-  <si>
-    <t>宝坻区</t>
-  </si>
-  <si>
-    <t>宁河县</t>
-  </si>
-  <si>
-    <t>静海县</t>
-  </si>
-  <si>
-    <t>东丽区</t>
-  </si>
-  <si>
-    <t>滨海新区</t>
-  </si>
-  <si>
-    <t>北辰区</t>
-  </si>
-  <si>
-    <t>津南区</t>
-  </si>
-  <si>
-    <t>蓟县</t>
-  </si>
-  <si>
-    <t>河北区</t>
-  </si>
-  <si>
-    <t>西青区</t>
-  </si>
-  <si>
-    <t>和平区</t>
-  </si>
-  <si>
-    <t>红桥区</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>区县编码</t>
   </si>
@@ -75,9 +27,6 @@
   </si>
   <si>
     <t>餐馆名称</t>
-  </si>
-  <si>
-    <t>区县</t>
   </si>
   <si>
     <t>纬度</t>
@@ -139,6 +88,100 @@
     <t>H年总经营时间（h）</t>
   </si>
   <si>
+    <t>年份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气消耗量(m3/d)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃煤消耗量(kg/d)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤气消耗量(m3/d)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用电量(度/d)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲醛消耗量(m3/d)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他消耗量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食用油消耗量(kg/d)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCC编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐馆地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO2 排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC排放量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在功能区</t>
+  </si>
+  <si>
+    <t>商业区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构代码</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -159,104 +202,17 @@
       </rPr>
       <t>烟气去除效率</t>
     </r>
-  </si>
-  <si>
-    <t>年份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>区县编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃气消耗量(m3/d)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃煤消耗量(kg/d)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>煤气消耗量(m3/d)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用电量(度/d)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲醛消耗量(m3/d)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他消耗量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他消耗量单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>食用油消耗量(kg/d)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCC编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐馆地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM10排放量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25排放量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO排放量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>VOC排放量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SO2 排放量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOX排放量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3排放量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OC排放量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC排放量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +289,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -366,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,12 +341,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 9" xfId="3"/>
-    <cellStyle name="常规 9 2 4" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 9" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 9 2 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -440,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,9 +443,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,6 +495,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -683,117 +687,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.62890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.47265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="19.375" customWidth="1"/>
-    <col min="17" max="17" width="19.375" style="4" customWidth="1"/>
-    <col min="18" max="19" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.47265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.62890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.47265625" customWidth="1"/>
+    <col min="9" max="9" width="11.5234375" customWidth="1"/>
+    <col min="10" max="10" width="12.1015625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.1015625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.3671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.89453125" customWidth="1"/>
+    <col min="14" max="17" width="19.3671875" customWidth="1"/>
+    <col min="18" max="18" width="19.3671875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="19.3671875" customWidth="1"/>
+    <col min="20" max="20" width="15.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="21.75">
+    <row r="1" spans="1:29" ht="21.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>47</v>
+      <c r="AC1" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>2001000190</v>
       </c>
@@ -804,56 +814,56 @@
         <v>650102</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>117.262342</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>39.066327999999999</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
+      <c r="K2" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1600</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
         <v>0.6</v>
       </c>
-      <c r="J2" s="2">
-        <v>1500</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1600</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0</v>
-      </c>
-      <c r="S2" s="5">
-        <v>0</v>
-      </c>
-      <c r="T2" s="5">
-        <v>0</v>
-      </c>
       <c r="U2" s="5">
         <v>0</v>
       </c>
@@ -878,165 +888,19 @@
       <c r="AB2" s="5">
         <v>0</v>
       </c>
+      <c r="AC2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="I4" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="2" width="8.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>120101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>120102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>120103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>120104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>120105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>120106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>120110</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>120111</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>120112</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>120113</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>120114</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>120115</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>120116</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>120221</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>120223</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>120225</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>